--- a/Non-code/Void Sdy Manufacturing Notes.xlsx
+++ b/Non-code/Void Sdy Manufacturing Notes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Alabama\baker Research\Void Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Alabama\baker Research\Void-Study\Non-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26203F1E-FD58-470B-9E44-49EC923A7FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99383197-DE53-42E9-89DD-C8FBFA86088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2D5054F8-9A6F-4C59-B5F7-F81AD6538E4D}"/>
+    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" xr2:uid="{2D5054F8-9A6F-4C59-B5F7-F81AD6538E4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="Bond params" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Group Letter</t>
   </si>
@@ -105,6 +106,84 @@
   </si>
   <si>
     <t>1st bond: time=10, pwr=3-0, 2nd bond: time=7, pwr=3-0</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>0hr</t>
+  </si>
+  <si>
+    <t>2hr</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>Solder</t>
+  </si>
+  <si>
+    <t>Chipquik SMD291SNL10T4</t>
+  </si>
+  <si>
+    <t>Chipquik SMD291SNL10T5</t>
+  </si>
+  <si>
+    <t>Chipquik SMD291SNL10T6</t>
+  </si>
+  <si>
+    <t>Indalloy 256 with INDIUM8.9HF flux</t>
+  </si>
+  <si>
+    <t>Used method where the solder was deposited first, and then the chip</t>
+  </si>
+  <si>
+    <t>LeadFree217Zone3</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>0 hr</t>
+  </si>
+  <si>
+    <t>2 hr</t>
+  </si>
+  <si>
+    <t>LeadFree217Zone4</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Process 1</t>
+  </si>
+  <si>
+    <t>Touchdown 1</t>
+  </si>
+  <si>
+    <t>Touchdown 2</t>
+  </si>
+  <si>
+    <t>Process 2</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NC 300um Touchdown (V2)</t>
+  </si>
+  <si>
+    <t>only one failure to attach but next time use a less-intense bond process</t>
+  </si>
+  <si>
+    <t>only one failure to attach but next time use a less-intense bond process due to the wire squishing</t>
   </si>
 </sst>
 </file>
@@ -734,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D79FD0A-8479-4CAA-ABAC-05D7BDDC0CF6}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -748,102 +827,175 @@
     <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -851,4 +1003,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A7EB0-8841-438B-A509-D0FBA3E0B6D9}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Non-code/Void Sdy Manufacturing Notes.xlsx
+++ b/Non-code/Void Sdy Manufacturing Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Alabama\baker Research\Void-Study\Non-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99383197-DE53-42E9-89DD-C8FBFA86088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688FEC9C-C542-4AD3-8C83-6C53BADB570C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" xr2:uid="{2D5054F8-9A6F-4C59-B5F7-F81AD6538E4D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2D5054F8-9A6F-4C59-B5F7-F81AD6538E4D}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Group Letter</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Used method where the solder was deposited first, and then the chip</t>
   </si>
   <si>
-    <t>LeadFree217Zone3</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>2 hr</t>
-  </si>
-  <si>
-    <t>LeadFree217Zone4</t>
   </si>
   <si>
     <t>Group</t>
@@ -816,7 +810,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -832,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
@@ -966,7 +960,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -977,7 +971,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -986,13 +980,13 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1017,22 +1011,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1051,22 +1045,22 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1074,30 +1068,30 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1105,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Non-code/Void Sdy Manufacturing Notes.xlsx
+++ b/Non-code/Void Sdy Manufacturing Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Alabama\baker Research\Void-Study\Non-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688FEC9C-C542-4AD3-8C83-6C53BADB570C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4DB786-0C8B-43BE-B07F-5D9F4FBB97F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2D5054F8-9A6F-4C59-B5F7-F81AD6538E4D}"/>
   </bookViews>
@@ -810,7 +810,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
